--- a/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
+++ b/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\omniPy\AdvDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFA396A-156C-4550-B92B-043CBB21BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB81552-4772-45C3-B8BD-A6D3E60AFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09020CF4-9F51-448A-8C84-8E8C9A006B79}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>D_BGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>{'encoding' : 'GB18030'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi1 roll 15 day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi2 roll 15 day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r15_&amp;L_curdate..hdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140112</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01402B73-73A9-49DD-BA23-F0DAE3D77BCF}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,7 +594,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>42370</v>
+        <v>42429</v>
       </c>
       <c r="B2" s="1">
         <v>73050</v>
@@ -602,7 +626,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42370</v>
+        <v>42429</v>
       </c>
       <c r="B3" s="1">
         <v>73050</v>
@@ -634,7 +658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42516</v>
+        <v>42429</v>
       </c>
       <c r="B4" s="1">
         <v>73050</v>
@@ -666,7 +690,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42516</v>
+        <v>42429</v>
       </c>
       <c r="B5" s="1">
         <v>73050</v>
@@ -698,7 +722,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>42370</v>
+        <v>42429</v>
       </c>
       <c r="B6" s="1">
         <v>73050</v>
@@ -730,7 +754,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>42370</v>
+        <v>42429</v>
       </c>
       <c r="B7" s="1">
         <v>73050</v>
@@ -784,6 +808,70 @@
       </c>
       <c r="I8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B9" s="1">
+        <v>73050</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42516</v>
+      </c>
+      <c r="B10" s="1">
+        <v>73050</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
+++ b/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\omniPy\AdvDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB81552-4772-45C3-B8BD-A6D3E60AFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D118331-0465-449B-BF4C-7CA49F83EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09020CF4-9F51-448A-8C84-8E8C9A006B79}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42429</v>
+        <v>42516</v>
       </c>
       <c r="B4" s="1">
         <v>73050</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42429</v>
+        <v>42516</v>
       </c>
       <c r="B5" s="1">
         <v>73050</v>

--- a/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
+++ b/Python/omniPy/AdvDB/CFG_KPI_Example.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\omniPy\AdvDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D118331-0465-449B-BF4C-7CA49F83EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DB574-4206-4F77-8C8F-622245F5A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09020CF4-9F51-448A-8C84-8E8C9A006B79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KPIConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="LibConfig" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,15 +26,51 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{83F1DD42-0DA4-491D-BFF9-53FCACFFB32B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[1] Literally we can combine the arguments for &lt;pull&gt; and &lt;push&gt; operations of the data in the same dict
+[2] If the data to be stored in [HDFS] type while &lt;format = table&gt; is needed, there must not be any &lt;object&gt; column that stores objects other than &lt;string&gt;, otherwise the API fails to store it. (In such case, all data created by &lt;asDates&gt; in Python would fail, i.e. one must use &lt;format = fixed&gt; to store such data, which is just the default behavior of &lt;pandas&gt;)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>D_BGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +203,50 @@
   </si>
   <si>
     <t>140112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_LIB_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi1 full month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi2 full month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm_&amp;L_curdate..hdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'format' : 'fixed'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +269,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01402B73-73A9-49DD-BA23-F0DAE3D77BCF}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01402B73-73A9-49DD-BA23-F0DAE3D77BCF}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,14 +646,13 @@
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,22 +672,19 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42429</v>
       </c>
@@ -611,31 +703,28 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42429</v>
+        <v>42516</v>
       </c>
       <c r="B3" s="1">
         <v>73050</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -643,52 +732,49 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42516</v>
+        <v>42429</v>
       </c>
       <c r="B4" s="1">
         <v>73050</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42516</v>
       </c>
@@ -696,31 +782,22 @@
         <v>73050</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42429</v>
       </c>
@@ -728,10 +805,10 @@
         <v>73050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -739,31 +816,31 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>42429</v>
+        <v>42516</v>
       </c>
       <c r="B7" s="1">
         <v>73050</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -771,57 +848,57 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>42516</v>
+        <v>42429</v>
       </c>
       <c r="B8" s="1">
         <v>73050</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>42429</v>
+        <v>42516</v>
       </c>
       <c r="B9" s="1">
         <v>73050</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -829,49 +906,127 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
       <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3FCAD8-B27C-4154-9A3F-C0529F6F3ADE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>42516</v>
-      </c>
-      <c r="B10" s="1">
-        <v>73050</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
